--- a/2205_금형요약_001/2205_금형요약작업001.xlsx
+++ b/2205_금형요약_001/2205_금형요약작업001.xlsx
@@ -1,21 +1,982 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="목록" sheetId="2" r:id="rId1"/>
+    <sheet name="년차별개발내용" sheetId="1" r:id="rId2"/>
+    <sheet name="연구과제수행일정" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+  <si>
+    <t>연차별개발목표및내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구과제수행일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의</t>
+  </si>
+  <si>
+    <t>개발분석 및 계획</t>
+  </si>
+  <si>
+    <t>데이터 구조 및 인터페이스 구조설계</t>
+  </si>
+  <si>
+    <t>PC 다중 협업솔루션 설계</t>
+  </si>
+  <si>
+    <t>VR 다중 협업솔루션 설계</t>
+  </si>
+  <si>
+    <t>MR 다중 협업솔루션 설계</t>
+  </si>
+  <si>
+    <t>가상 공간에 협업을 위한 저작툴 설계</t>
+  </si>
+  <si>
+    <t>해석 알고리즘 및 가시화 기능 개발</t>
+  </si>
+  <si>
+    <t>해석 결과에 대한 성능 및 실행 평가</t>
+  </si>
+  <si>
+    <t>AI 기반 금형 형상 인식 기술 사전 연구</t>
+  </si>
+  <si>
+    <t>CAD 데이터 실시간 변환 기술 테스트</t>
+  </si>
+  <si>
+    <t>설계 모듈 관련 데이터 구축(소스모델)</t>
+  </si>
+  <si>
+    <t>유동시스템 설계 모듈 알고리즘 설계</t>
+  </si>
+  <si>
+    <t>유동시스템 Proto 프로그래밍</t>
+  </si>
+  <si>
+    <t>유동시스템 설계 모듈 테스트/평가</t>
+  </si>
+  <si>
+    <t>1차년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 수립 및 자료조사</t>
+  </si>
+  <si>
+    <t>PC 다중 협업솔루션 개발</t>
+  </si>
+  <si>
+    <t>VR 다중 협업솔루션 개발</t>
+  </si>
+  <si>
+    <t>MR 다중 협업솔루션 개발</t>
+  </si>
+  <si>
+    <t>가상 공간에 협업을 위한 저작툴 개발</t>
+  </si>
+  <si>
+    <t>AI 기반 형상인식 설계</t>
+  </si>
+  <si>
+    <t>AI 기반 형상인식 개발</t>
+  </si>
+  <si>
+    <t>AI 기반 검색엔진 설계</t>
+  </si>
+  <si>
+    <t>AI 기반 검색엔진 개발</t>
+  </si>
+  <si>
+    <t>금형 3D CAD Assembly 데이터 Unity 데이타 변환 설계</t>
+  </si>
+  <si>
+    <t>금형 3D CAD Assembly 데이터 Unity 데이타 변환 개발</t>
+  </si>
+  <si>
+    <t>쾌속사출성형 (시뮬레이션) 결과 인터페이스 적용</t>
+  </si>
+  <si>
+    <t>XR 다중서버 개발 및 통합서버 구축</t>
+  </si>
+  <si>
+    <t>유동패턴 해석 정밀도 및 속도 향상</t>
+  </si>
+  <si>
+    <t>성형압력 계산 알고리즘 개발 및 기능 구현</t>
+  </si>
+  <si>
+    <t>사출압 계산 알고리즘 개발 및 기능 구현</t>
+  </si>
+  <si>
+    <t>수지 D/B 구축 및 GUI 구현</t>
+  </si>
+  <si>
+    <t>설계 모듈 관련 데이터 구축(타입별 소스모델)</t>
+  </si>
+  <si>
+    <t>유동시스템 설계 모듈 알고리즘 및 화면 설계</t>
+  </si>
+  <si>
+    <t>유동시스템 프로그램 개발</t>
+  </si>
+  <si>
+    <t>해석/설계 모듈 인터페이스 개발 및 적용</t>
+  </si>
+  <si>
+    <t>플랫폼 실증 계획 수립 및 테스트</t>
+  </si>
+  <si>
+    <t>2차년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI 기반 금형 형상 인식 기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAD 데이터 실시간 엔진 변환 기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쾌속사출성형(시뮬레이션) 결과 연동</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XR 공간에 협업을 위한 UI/UX 저작툴 설계</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PC / 모바일 / VR / MR 다중 협업 통합 솔루션 설계</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI 기반 금형의 형상인식 기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI 기반 금형 유사 데이터 추첨 시스템</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XR 금형 협업 멀티 서버 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 3D CAD Assembly 데이터 Unity 데이터 변환 기술설계 및 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쾌속사출성형(시뮬레이션) 결과 인터페이스 연동</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VR, MR 등 멀티플랫폼 연동 인터페이스</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PC / 모바일 / VR / MR 다중 협업 통합 솔루션 개발</t>
+    </r>
+  </si>
+  <si>
+    <t>셀빅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브이엠테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사출물의 금형 설계 검증을 위한 쾌속사출성형 알고리즘 및 가시화 기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">사출물 형상 읽기 (STL format), 기하학적 정보 제공 및 가시화 기능 개발 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메쉬 재생성 기능 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두께 계산 알고리즘 개발 및 가시화 기능 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주입구 설정 기능 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유동 패턴 계산 알고리즘 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다중협업 솔루션과의 가시화(제품 두께) 연계기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사출물의 금형 설계 검증을 위한 쾌속 사출성형 알고리즘 및 가시화 기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유동패턴 결과 가시화 기능 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>형체력 계산 알고리즘 개발 및 가시화 기능 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두께 계산 알고리즘의 계산속도 및 적중률 향상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">유동 패턴 계산 알고리즘의 계산속도 및 적중률 향상 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메쉬 재생성 기능 속도향상을 위한 병렬화 적용</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다중협업 솔루션과의 통합 연계기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 유동시스템 설계 자동화 원천 기술 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게이트 자동 설계 알고리즘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게이트 Proto 타입 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 유동시스템 설계 자동화 프로그램 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게이트 자동 설계 3D 생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>런너 자동 설계 3D 생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스프루 자동 설계 3D 생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>몰드베이스 설계 자동화 프로그램 개발</t>
+    </r>
+  </si>
+  <si>
+    <t>캐디언스시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국생산기술연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실감형 플랫폼을 위한 부품 표준 분류 및 프로토콜 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI 기반 데이터 마이닝을 위한 학습 DB 구축</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XR 플랫폼 연계 BMT 금형 기초 설계</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실감형 플랫폼을 위한 부품 표준 분류 및 프로토콜 고도화</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI 기반 데이터 마이닝을 위한 학습 DB 고도화</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 협업설계 프로세스 확립 및 협업 툴 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XR 플랫폼 연계 BMT 금형 제작 / 실증</t>
+    </r>
+  </si>
+  <si>
+    <t>수요기관 : SPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>협업 플랫폼 현장 적용을 위한 문제점 및 요구사항 분석</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF186FA9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XR 플랫폼 현장 적용 및 실증 진행</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XR 플랫폼 적용을 위한 H / W 구축</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF186FA9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XR 금형 다중 협업 솔루션 설계, 기획 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF186FA9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>알고리즘 및 원천 기술 프로토타입 개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF186FA9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AI 기반 형상 인식 기술, 금형 유동 시스템 자동화 프로그램 완료 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF186FA9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XR 금형 다중 협업 플랫폼 적용을 위한 H/W 구축  및 실증 진행</t>
+    </r>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +984,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF003478"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF003478"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF404040"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF186FA9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF029BDF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF186FA9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -40,23 +1091,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +1208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +1243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1451,562 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="64.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="97.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2205_금형요약_001/2205_금형요약작업001.xlsx
+++ b/2205_금형요약_001/2205_금형요약작업001.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="목록" sheetId="2" r:id="rId1"/>
     <sheet name="년차별개발내용" sheetId="1" r:id="rId2"/>
-    <sheet name="연구과제수행일정" sheetId="3" r:id="rId3"/>
+    <sheet name="년차별개발내용-그림" sheetId="4" r:id="rId3"/>
+    <sheet name="연구과제수행일정" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>연차별개발목표및내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,6 +970,169 @@
   </si>
   <si>
     <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금형 리소스 기반 AI 딥러닝 모델 사전 효용성 검증 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 리소스기반 AI 딥러닝 모델 개발을 위하여 딥러닝 모델에 사용될 Input / Output을 명확히 하고, 금형 DB 카테고리 정리 수행</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 데이터의 Mesh를 기반으로 AI 딥러닝 모델을 할 수 있는 사전 데이터 및 준비 수행</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mesh 기반 특성값 추출을 통해 금형 DB에 각 데이터의 특성 값을 저장</t>
+    </r>
+  </si>
+  <si>
+    <t>CAD 데이터를 실시간 엔진 플랫폼 맞춤 데이터 최적화 테스트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일반적으로 실시간 렌더링에 알맞지 않은 대용량 CAD 데이터를 실시간 엔진 플랫폼에 맞춘 데이터로 파일을 변환하여 Import</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 데이터의 특성상 사용자가 볼 수 없는 지점에도 구조물이나 부품들이 있을 수 있기 때문에, 외곽부품들과 중요 Product 영역만을 가시화하여 모델 최적화</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">전체 금형 3D 모델링 데이터에서 제품(Product), Core, Cavity, Stationary plate, Main runner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>각 파츠 부품별 분류 간소화, 세분화 인터페이스 기준 설정.</t>
+    </r>
+  </si>
+  <si>
+    <t>쾌속사출성형 (시뮬레이션) Unity 엔진 연동 BMT(벤치마크 테스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쾌속사출성형 솔루션의 원활한 포팅을 위하여 다중 협업 솔루션의 기반 프레임워크인 Unity Framework에 포팅 여부 및 문제점을 확인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쾌속사출성형의 시뮬레이션 및 데이터 처리를 비동기화 하여 Unity Framework에 영향을 주지 않도록 설계</t>
+    </r>
+  </si>
+  <si>
+    <t>금형산업에 특화된 UI/UX 레이아웃 가진 저작툴 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스가 상이한 PC/모바일/VR/MR 협업 통합 솔루션 기획.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XR(VR,MR) 등 멀티플랫폼 연동 인터페이스 컨셉 설계.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +1140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,6 +1232,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF003478"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008080"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1125,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1147,6 +1335,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,21 +1677,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D50"/>
+  <dimension ref="B3:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="162.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>95</v>
       </c>
@@ -1511,12 +1703,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>41</v>
       </c>
@@ -1524,12 +1716,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -1540,257 +1732,383 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="3" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="3" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="3" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="3" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="3" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="3" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C75" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="6" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1802,6 +2120,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E38"/>
   <sheetViews>

--- a/2205_금형요약_001/2205_금형요약작업001.xlsx
+++ b/2205_금형요약_001/2205_금형요약작업001.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="2" r:id="rId1"/>
-    <sheet name="년차별개발내용" sheetId="1" r:id="rId2"/>
-    <sheet name="년차별개발내용-그림" sheetId="4" r:id="rId3"/>
-    <sheet name="연구과제수행일정" sheetId="3" r:id="rId4"/>
+    <sheet name="업체별협력요약" sheetId="5" r:id="rId2"/>
+    <sheet name="년차별개발내용" sheetId="1" r:id="rId3"/>
+    <sheet name="년차별개발내용-그림" sheetId="4" r:id="rId4"/>
+    <sheet name="연구과제수행일정" sheetId="3" r:id="rId5"/>
+    <sheet name="정량목표평가방법" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
   <si>
     <t>연차별개발목표및내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,6 +1135,184 @@
   </si>
   <si>
     <t>XR(VR,MR) 등 멀티플랫폼 연동 인터페이스 컨셉 설계.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가항목</t>
+  </si>
+  <si>
+    <t>평가방법</t>
+  </si>
+  <si>
+    <t>금형 CAD Assembly 파일(20Mb 이상)을 XR 증강현실에서 동시 구동 및 협업 설계를 위한 유니티 파일로 자동 변환시키는 속도를 평가</t>
+  </si>
+  <si>
+    <t>2. 협업 툴 이벤트 전달속도</t>
+  </si>
+  <si>
+    <t>협업 툴 기반에서 사용자들간의 이벤트를 전달했을 때 다른 사용자에게 도달하는 시간 평가</t>
+  </si>
+  <si>
+    <t>3. 협업툴 서비스 성능</t>
+  </si>
+  <si>
+    <t>제공되는 협업 툴 서비스의 성능확인. 서비스를 실행하여 초당 화면이 그려지는 수를 체크하여 평가</t>
+  </si>
+  <si>
+    <t>4. 동시 협업 참여인원 수</t>
+  </si>
+  <si>
+    <t>MR 실감 콘텐츠 서비스 활용하여 동시에 협업에 참여하여 활동을 하는 인원수를 평가</t>
+  </si>
+  <si>
+    <t>5. AI 형상인식 속도</t>
+  </si>
+  <si>
+    <t>콘텐츠 데이터에 대하여 인공지능을 기반으로 형상을 인식하여 결과값 나오는 속도를 평가</t>
+  </si>
+  <si>
+    <t>8. 유동패턴 적중율</t>
+  </si>
+  <si>
+    <t>종류</t>
+  </si>
+  <si>
+    <t>형태</t>
+  </si>
+  <si>
+    <t>개발 전 자동화율(%)</t>
+  </si>
+  <si>
+    <t>1차년도 자동화율(%)</t>
+  </si>
+  <si>
+    <t>2차년도 자동화율(%)</t>
+  </si>
+  <si>
+    <t>게이트</t>
+  </si>
+  <si>
+    <t>핀타입</t>
+  </si>
+  <si>
+    <t>10~50</t>
+  </si>
+  <si>
+    <t>사이드타입</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>터널타입</t>
+  </si>
+  <si>
+    <t>런너</t>
+  </si>
+  <si>
+    <t>원형타입</t>
+  </si>
+  <si>
+    <t>사다리꼴타입</t>
+  </si>
+  <si>
+    <t>U형타입</t>
+  </si>
+  <si>
+    <t>스프루</t>
+  </si>
+  <si>
+    <t>평균</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>사용자설계</t>
+  </si>
+  <si>
+    <t>핀형 게이트, Proto 개발 적용</t>
+  </si>
+  <si>
+    <t>유동시스템 자동화 개발 적용</t>
+  </si>
+  <si>
+    <t>1. CAD→unity파일 변환속도 (20Mb 기준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 5종 선정하여 CAD SW 제공 또는 측정 정보와 비교
+(체적, 표면적, 투영면적, 두께, 두께는 10 point 이상 측정)
+※ 두께 계산 오차 = (CAD 측정 두께 – 과제에서 수행한 솔버에서 계산된 두께) / CAD 측정 두께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 기하학적 정보 두께 예측 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 솔버 계산시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소 개수 50만개 수준의 샘플을 선정하여 계산시간을 측정함.
+(멀티스레드 4개 이상 병렬화 기법 적용, CPU 3.5GHz 이상)
+※ 개발 전/후의 Solver에서 두께 및 유동패턴 계산 속도를 측정하여 비교함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 5종을 선정하여 3차원 사출성형 해석 SW(MAPS-3D) 결과와 비교 (절점에서의 충전율 상대오차 산출 및 비교)
+※ 유동 패턴 적중률 = 
+* A : CAE에서 계산된 각 절점의 충전율, 
+* B : 과제에서 수행한 솔버에서 계산된 각 절점의 충전율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 설계 효율성 및 금형 수정 횟수 / 비용에 대한 분석 진행</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>플랫폼 활용 디바이스 구축을 통한 작업자의 업무 효율성 분석</t>
+    </r>
+  </si>
+  <si>
+    <t>설계 및 엣지 디바이스 구축을 통한 업무 제약성 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금형제작 밸류체인 적용을 위한 H/W 구축 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신차개발 양산금형 선정하여 플랫폼 활용 성능 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산 금형 개발공정 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1140,7 +1320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,8 +1436,36 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,8 +1478,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003478"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1309,11 +1535,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF003478"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF003478"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF003478"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF003478"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF003478"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F2F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF003478"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF003478"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1338,6 +1749,102 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,6 +1861,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427151</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="682722"/>
+          <a:ext cx="9275876" cy="4907673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1677,10 +2227,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E77"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2029,22 +2595,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D67" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>79</v>
       </c>
@@ -2055,17 +2621,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D69" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D70" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>41</v>
       </c>
@@ -2073,43 +2639,80 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="3" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="3" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="3" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>87</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="6" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="6"/>
+      <c r="E78" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="6"/>
+      <c r="E79" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="6"/>
+      <c r="E80" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D81" s="6"/>
+      <c r="E81" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="6" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2134,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E38"/>
   <sheetViews>
@@ -2342,4 +2945,285 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="3" max="6" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="2:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="2:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="16">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="26"/>
+      <c r="C15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="27"/>
+      <c r="C16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="26"/>
+      <c r="C18" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="27"/>
+      <c r="C19" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="19">
+        <v>60</v>
+      </c>
+      <c r="F21" s="20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2205_금형요약_001/2205_금형요약작업001.xlsx
+++ b/2205_금형요약_001/2205_금형요약작업001.xlsx
@@ -19831,7 +19831,7 @@
   <dimension ref="B2:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/2205_금형요약_001/2205_금형요약작업001.xlsx
+++ b/2205_금형요약_001/2205_금형요약작업001.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="184">
   <si>
     <t>연차별개발목표및내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1048,12 +1048,105 @@
       <t>CAD 데이터 실시간 엔진 변환 기술 개발</t>
     </r>
   </si>
+  <si>
+    <t>AI 기반 금형 형상 인식 기술 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>딥러닝 학습을 위한 금형 리소스 DB를 제작하는 과정에서, 효율성을 올리기 위한 Labeling Tool</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>금형 데이터에 적합한 카테고리 및 Classification Class 분류, 각 데이터 특성에 맞는 추가 특성 값들을 적용하여 학습용 데이터를 제작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeshCNN, 카테고리 분류 기반 구조 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mesh의 Vertex 정보를 이용한 CNN 기법을 활용하여 3D Mesh의 Feature 추출</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추출된 Feature를 기반으로 Classification 학습을 통해 메쉬의 Class 분류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>광범위한 금형 데이터의 특성상 사전에 카테고리 분류를 통해 데이터를 필터링하여 각 카테고리별 딥러닝 학습모델을 구축</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1218,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF003478"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1508,118 +1609,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1628,7 +1729,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -19828,10 +19929,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D47"/>
+  <dimension ref="B2:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19957,110 +20058,156 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="43" t="s">
-        <v>139</v>
-      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="43"/>
-      <c r="D24" s="41" t="s">
-        <v>64</v>
+      <c r="C24" s="43" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="43" t="s">
-        <v>140</v>
+      <c r="C25" s="43"/>
+      <c r="D25" s="41" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
-      <c r="D26" s="41" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="43"/>
-      <c r="D27" s="45" t="s">
-        <v>65</v>
+      <c r="C27" s="43" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
+      <c r="D28" s="41" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>141</v>
+      <c r="C29" s="43"/>
+      <c r="D29" s="45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C30" s="43"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="43"/>
+      <c r="B31" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="43"/>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="43" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="43"/>
+      <c r="D34" s="45" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C35" s="43"/>
+      <c r="D35" s="48" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C36" s="43"/>
+      <c r="D36" s="48" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="43" t="s">
-        <v>142</v>
-      </c>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="43" t="s">
-        <v>143</v>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="43"/>
+      <c r="D38" s="45" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="43" t="s">
-        <v>144</v>
+    <row r="39" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C39" s="43"/>
+      <c r="D39" s="48" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="43" t="s">
-        <v>145</v>
+    <row r="40" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C40" s="43"/>
+      <c r="D40" s="48" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="43" t="s">
-        <v>146</v>
+    <row r="41" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C41" s="43"/>
+      <c r="D41" s="48" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="43" t="s">
-        <v>147</v>
-      </c>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="43"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="43"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="43"/>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="43" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="43"/>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="43"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="43"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="43"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="43"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2205_금형요약_001/2205_금형요약작업001.xlsx
+++ b/2205_금형요약_001/2205_금형요약작업001.xlsx
@@ -4,39 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="771"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="771" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="2" r:id="rId1"/>
-    <sheet name="(1)무엇을" sheetId="7" r:id="rId2"/>
-    <sheet name="(1)무엇을 (2)" sheetId="9" r:id="rId3"/>
-    <sheet name="(2)만들내용" sheetId="8" r:id="rId4"/>
-    <sheet name="업체별협력요약" sheetId="5" r:id="rId5"/>
-    <sheet name="년차별개발요약 (1) 전체" sheetId="11" r:id="rId6"/>
-    <sheet name="년차별개발내용 (2) 셀빅" sheetId="10" r:id="rId7"/>
-    <sheet name="년차별개발내용 (3) 나머지" sheetId="1" r:id="rId8"/>
-    <sheet name="년차별개발내용-그림" sheetId="4" r:id="rId9"/>
-    <sheet name="연구과제수행일정" sheetId="3" r:id="rId10"/>
-    <sheet name="정량목표평가방법" sheetId="6" r:id="rId11"/>
+    <sheet name="전체요약문서" sheetId="12" r:id="rId2"/>
+    <sheet name="(1)무엇을" sheetId="7" r:id="rId3"/>
+    <sheet name="(1)무엇을 (2)" sheetId="9" r:id="rId4"/>
+    <sheet name="(2)만들내용" sheetId="8" r:id="rId5"/>
+    <sheet name="업체별협력요약" sheetId="5" r:id="rId6"/>
+    <sheet name="년차별개발요약 (1) 전체" sheetId="11" r:id="rId7"/>
+    <sheet name="년차별개발내용 (2) 셀빅" sheetId="10" r:id="rId8"/>
+    <sheet name="년차별개발내용 (3) 나머지" sheetId="1" r:id="rId9"/>
+    <sheet name="년차별개발내용-그림" sheetId="4" r:id="rId10"/>
+    <sheet name="연구과제수행일정" sheetId="3" r:id="rId11"/>
+    <sheet name="정량목표평가방법" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="185">
-  <si>
-    <t>연차별개발목표및내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구과제수행일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="182">
   <si>
     <t>요구사항 정의</t>
   </si>
@@ -1664,17 +1653,32 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1709,32 +1713,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1871,7 +1860,7 @@
         <xdr:cNvPr id="3" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8149CE70-CBB0-4E32-BBD2-D701F335DBA2}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{8149CE70-CBB0-4E32-BBD2-D701F335DBA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2208,7 @@
         <xdr:cNvPr id="4" name="그룹 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{37F9C046-0783-4B55-A3E3-7918939AEFE1}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{37F9C046-0783-4B55-A3E3-7918939AEFE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2227,7 @@
           <xdr:cNvPr id="5" name="TextBox 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{251CAE01-CBF5-44DA-85F7-59BB64815DD4}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{251CAE01-CBF5-44DA-85F7-59BB64815DD4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2422,7 +2411,7 @@
           <xdr:cNvPr id="6" name="그룹 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{129B9DA1-8202-4849-A4F9-96B202F66D92}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{129B9DA1-8202-4849-A4F9-96B202F66D92}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2441,7 +2430,7 @@
             <xdr:cNvPr id="7" name="그룹 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0F889EC2-C9C2-41B2-8691-8758DC136592}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0F889EC2-C9C2-41B2-8691-8758DC136592}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2460,7 +2449,7 @@
               <xdr:cNvPr id="9" name="사각형: 둥근 모서리 31">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E411B144-8E55-4AF2-89B9-520B2E327CF3}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E411B144-8E55-4AF2-89B9-520B2E327CF3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2615,7 +2604,7 @@
               <xdr:cNvPr id="10" name="사각형: 둥근 모서리 32">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{90841F91-5F9E-4AF2-BF6E-38F3C5B60BC9}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{90841F91-5F9E-4AF2-BF6E-38F3C5B60BC9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2784,7 +2773,7 @@
               <xdr:cNvPr id="11" name="TextBox 33">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00FB997D-34C4-4F42-AB48-84618C30C48E}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{00FB997D-34C4-4F42-AB48-84618C30C48E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2941,7 +2930,7 @@
             <xdr:cNvPr id="8" name="TextBox 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8261E75E-BE98-43AB-A4C4-634A336D701D}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{8261E75E-BE98-43AB-A4C4-634A336D701D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3207,7 +3196,7 @@
         <xdr:cNvPr id="12" name="그룹 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{037A4742-42A8-47F3-AB1A-23E1D2ABCE92}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{037A4742-42A8-47F3-AB1A-23E1D2ABCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3215,7 @@
           <xdr:cNvPr id="13" name="TextBox 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D690A68C-9E4D-4207-BC88-54FC877BDE86}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D690A68C-9E4D-4207-BC88-54FC877BDE86}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3688,7 +3677,7 @@
           <xdr:cNvPr id="14" name="그룹 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9F10F866-659C-4BAB-8EF3-CDD689BB2AE9}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9F10F866-659C-4BAB-8EF3-CDD689BB2AE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3707,7 +3696,7 @@
             <xdr:cNvPr id="15" name="사각형: 둥근 모서리 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7EE7692D-03D0-4F6F-8853-0F294F737B3E}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7EE7692D-03D0-4F6F-8853-0F294F737B3E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3862,7 +3851,7 @@
             <xdr:cNvPr id="16" name="TextBox 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B61361EC-E16E-4971-953B-36100F2DAC3A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B61361EC-E16E-4971-953B-36100F2DAC3A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4036,7 +4025,7 @@
             <xdr:cNvPr id="17" name="그룹 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{34B9DECB-574F-45D5-A896-0B3009662372}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{34B9DECB-574F-45D5-A896-0B3009662372}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4055,7 +4044,7 @@
               <xdr:cNvPr id="18" name="사각형: 둥근 모서리 25">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{506AF361-1E82-49D1-B732-412FA9F27797}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{506AF361-1E82-49D1-B732-412FA9F27797}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4224,7 +4213,7 @@
               <xdr:cNvPr id="19" name="TextBox 26">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1B50F9C2-088D-4544-9864-6A084C41E415}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1B50F9C2-088D-4544-9864-6A084C41E415}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4398,7 +4387,7 @@
         <xdr:cNvPr id="20" name="그룹 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7E0F8A08-4406-49C0-840C-AF44915D8D41}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7E0F8A08-4406-49C0-840C-AF44915D8D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4417,7 +4406,7 @@
           <xdr:cNvPr id="21" name="TextBox 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0DE39F55-B29F-4432-B358-F0AB3981540D}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0DE39F55-B29F-4432-B358-F0AB3981540D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4673,7 +4662,7 @@
           <xdr:cNvPr id="22" name="그룹 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B99BA0DA-013E-4B37-B50A-1DDCE94AB3F8}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B99BA0DA-013E-4B37-B50A-1DDCE94AB3F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4692,7 +4681,7 @@
             <xdr:cNvPr id="23" name="사각형: 둥근 모서리 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{380B0F75-D79C-404B-B493-126672784B25}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{380B0F75-D79C-404B-B493-126672784B25}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4847,7 +4836,7 @@
             <xdr:cNvPr id="24" name="TextBox 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F9A52742-6EB5-443A-8A1E-AC491D10BB7B}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F9A52742-6EB5-443A-8A1E-AC491D10BB7B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4996,7 +4985,7 @@
             <xdr:cNvPr id="25" name="그룹 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A122E6BE-9D05-4541-8B47-255E202F38BF}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A122E6BE-9D05-4541-8B47-255E202F38BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5015,7 +5004,7 @@
               <xdr:cNvPr id="26" name="사각형: 둥근 모서리 18">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E07E88FD-2022-4950-BABB-B625031B7262}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E07E88FD-2022-4950-BABB-B625031B7262}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5184,7 +5173,7 @@
               <xdr:cNvPr id="27" name="TextBox 19">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5E16C9AD-9EC6-4688-8BBF-6D1E11F41E99}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5E16C9AD-9EC6-4688-8BBF-6D1E11F41E99}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5358,7 +5347,7 @@
         <xdr:cNvPr id="28" name="그룹 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AC0FAF9B-F391-49F0-9C6C-CB9ED8F04353}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AC0FAF9B-F391-49F0-9C6C-CB9ED8F04353}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5377,7 +5366,7 @@
           <xdr:cNvPr id="29" name="TextBox 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7DBDA1F6-3B22-4F58-8669-0C071CE3E952}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7DBDA1F6-3B22-4F58-8669-0C071CE3E952}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5762,7 +5751,7 @@
           <xdr:cNvPr id="30" name="그룹 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1BEDA275-4934-44C2-95F4-AD7E644EF8D4}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1BEDA275-4934-44C2-95F4-AD7E644EF8D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5781,7 +5770,7 @@
             <xdr:cNvPr id="31" name="사각형: 둥근 모서리 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{FC7F3675-56B7-4093-8117-64FDE94B100A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{FC7F3675-56B7-4093-8117-64FDE94B100A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5936,7 +5925,7 @@
             <xdr:cNvPr id="32" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{718BEF2C-9BF3-4857-9E90-25D9B9B8F1F2}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{718BEF2C-9BF3-4857-9E90-25D9B9B8F1F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6074,7 +6063,7 @@
             <xdr:cNvPr id="33" name="그룹 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B970F5BB-B7FC-4B89-8E98-2E6E0546C180}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B970F5BB-B7FC-4B89-8E98-2E6E0546C180}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6093,7 +6082,7 @@
               <xdr:cNvPr id="34" name="사각형: 둥근 모서리 11">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0330679C-C3BA-4758-A863-4DF58137E960}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0330679C-C3BA-4758-A863-4DF58137E960}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6262,7 +6251,7 @@
               <xdr:cNvPr id="35" name="TextBox 12">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4A241476-653F-48B5-828A-8F4D4B87B16A}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4A241476-653F-48B5-828A-8F4D4B87B16A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6436,7 +6425,7 @@
         <xdr:cNvPr id="36" name="그룹 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BE228117-78B8-4A38-AAF2-7E04C3F21C4A}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BE228117-78B8-4A38-AAF2-7E04C3F21C4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6455,7 +6444,7 @@
           <xdr:cNvPr id="37" name="그룹 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CC2BEB18-E766-4CEC-A57D-80876AA629BD}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CC2BEB18-E766-4CEC-A57D-80876AA629BD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6474,7 +6463,7 @@
             <xdr:cNvPr id="127" name="그룹 126">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B83582CC-BF57-4EFA-AB90-5634A481E75D}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B83582CC-BF57-4EFA-AB90-5634A481E75D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6493,7 +6482,7 @@
               <xdr:cNvPr id="153" name="양쪽 모서리가 둥근 사각형 152">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{042E7F9B-A83F-4DD0-88E2-AA33CA89D3AD}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{042E7F9B-A83F-4DD0-88E2-AA33CA89D3AD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6638,7 +6627,7 @@
               <xdr:cNvPr id="154" name="TextBox 145">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{29D96300-BDF8-44C9-9458-AFB86A8D0979}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{29D96300-BDF8-44C9-9458-AFB86A8D0979}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6792,7 +6781,7 @@
               <xdr:cNvPr id="155" name="그룹 154">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E2CC67A4-2246-4F9B-8289-8BCADF443EA3}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E2CC67A4-2246-4F9B-8289-8BCADF443EA3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6811,7 +6800,7 @@
                 <xdr:cNvPr id="156" name="직사각형 155">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E8EC52FA-056D-4CB8-BBFD-CA767F5CBB00}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E8EC52FA-056D-4CB8-BBFD-CA767F5CBB00}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6960,7 +6949,7 @@
                 <xdr:cNvPr id="157" name="직선 연결선 156">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{50E670FD-CD0E-4747-B887-ACB4DA1E53FE}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{50E670FD-CD0E-4747-B887-ACB4DA1E53FE}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -7002,7 +6991,7 @@
             <xdr:cNvPr id="128" name="그룹 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4F8A38FA-E4F2-441C-8BC3-9C11F6E7F755}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4F8A38FA-E4F2-441C-8BC3-9C11F6E7F755}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7021,7 +7010,7 @@
               <xdr:cNvPr id="151" name="모서리가 둥근 직사각형 150">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{69B06506-A5DC-4B5A-9E48-EE85DDEE6A2B}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{69B06506-A5DC-4B5A-9E48-EE85DDEE6A2B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7175,7 +7164,7 @@
               <xdr:cNvPr id="152" name="TextBox 142">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2476DB24-6872-4F69-A2AF-6BB623DD09AD}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{2476DB24-6872-4F69-A2AF-6BB623DD09AD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7330,7 +7319,7 @@
             <xdr:cNvPr id="129" name="그룹 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CE9BBDAA-6D08-4BE9-9A5F-F176DFE771D8}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CE9BBDAA-6D08-4BE9-9A5F-F176DFE771D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7349,7 +7338,7 @@
               <xdr:cNvPr id="149" name="모서리가 둥근 직사각형 148">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8FF63C15-A73C-4583-BBE7-33047705E09F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{8FF63C15-A73C-4583-BBE7-33047705E09F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7503,7 +7492,7 @@
               <xdr:cNvPr id="150" name="TextBox 140">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4D10F8EC-3816-4B73-8915-44FF38195590}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4D10F8EC-3816-4B73-8915-44FF38195590}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7658,7 +7647,7 @@
             <xdr:cNvPr id="130" name="그룹 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{006DA4DC-D6A6-48F1-A9D1-F11EF9D1AFB8}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{006DA4DC-D6A6-48F1-A9D1-F11EF9D1AFB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7677,7 +7666,7 @@
               <xdr:cNvPr id="147" name="모서리가 둥근 직사각형 146">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E6D07206-4D75-416E-9714-AA38977B3EC2}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E6D07206-4D75-416E-9714-AA38977B3EC2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7831,7 +7820,7 @@
               <xdr:cNvPr id="148" name="TextBox 138">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{67FA9F03-FDEA-4D92-9916-449B169D2B0C}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{67FA9F03-FDEA-4D92-9916-449B169D2B0C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7986,7 +7975,7 @@
             <xdr:cNvPr id="131" name="TextBox 51">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{46A02D19-4332-4FEE-AA30-D2BB75C4EC79}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{46A02D19-4332-4FEE-AA30-D2BB75C4EC79}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8178,7 +8167,7 @@
             <xdr:cNvPr id="132" name="직선 연결선 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DF53EDD0-0FBA-4F84-992F-6A9EB36DC6DF}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{DF53EDD0-0FBA-4F84-992F-6A9EB36DC6DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8227,7 +8216,7 @@
             <xdr:cNvPr id="133" name="직선 연결선 132">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7C0408A7-6462-456D-81FB-06B5AEFA959F}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7C0408A7-6462-456D-81FB-06B5AEFA959F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8276,7 +8265,7 @@
             <xdr:cNvPr id="134" name="직선 연결선 133">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{49426EB0-6DEF-4923-B173-D16BC7C11366}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{49426EB0-6DEF-4923-B173-D16BC7C11366}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8325,7 +8314,7 @@
             <xdr:cNvPr id="135" name="직선 연결선 134">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4A60F954-0844-4889-BFDB-5855E9BD1DAF}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4A60F954-0844-4889-BFDB-5855E9BD1DAF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8374,7 +8363,7 @@
             <xdr:cNvPr id="136" name="그림 135">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5C0EE239-7C1A-487D-A7A7-0820ADE6B7E9}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5C0EE239-7C1A-487D-A7A7-0820ADE6B7E9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8409,7 +8398,7 @@
             <xdr:cNvPr id="137" name="그림 136">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5F439796-0EAC-4F9E-969D-0FF1C1F6CE0B}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5F439796-0EAC-4F9E-969D-0FF1C1F6CE0B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8444,7 +8433,7 @@
             <xdr:cNvPr id="138" name="그림 137">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0F00230B-0197-45DF-8EB3-DF3B7AD6A3B1}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0F00230B-0197-45DF-8EB3-DF3B7AD6A3B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8479,7 +8468,7 @@
             <xdr:cNvPr id="139" name="그림 138">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{62940FF4-C2F7-4428-868E-EAE7A31FC2AE}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{62940FF4-C2F7-4428-868E-EAE7A31FC2AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8514,7 +8503,7 @@
             <xdr:cNvPr id="140" name="직사각형 139">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{56D41311-C226-48E5-A285-2720F155E5C0}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{56D41311-C226-48E5-A285-2720F155E5C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8667,7 +8656,7 @@
             <xdr:cNvPr id="141" name="직사각형 140">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9CCBA8CE-7B5D-4114-805C-C56B2AF3DACB}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9CCBA8CE-7B5D-4114-805C-C56B2AF3DACB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8820,7 +8809,7 @@
             <xdr:cNvPr id="142" name="직사각형 141">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C6E9DFC7-0694-4FA6-9E01-B4A0982DC0AA}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{C6E9DFC7-0694-4FA6-9E01-B4A0982DC0AA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8973,7 +8962,7 @@
             <xdr:cNvPr id="143" name="직사각형 142">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DDDB052D-E4C7-4DFA-A094-0DA74638ABD1}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{DDDB052D-E4C7-4DFA-A094-0DA74638ABD1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9126,7 +9115,7 @@
             <xdr:cNvPr id="144" name="TextBox 66">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{60C038E9-B12C-4C72-A51B-D561112040C9}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{60C038E9-B12C-4C72-A51B-D561112040C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9302,7 +9291,7 @@
             <xdr:cNvPr id="145" name="TextBox 67">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3D910381-F148-44AE-8C80-0EE03EE15B10}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3D910381-F148-44AE-8C80-0EE03EE15B10}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9478,7 +9467,7 @@
             <xdr:cNvPr id="146" name="TextBox 68">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9B2A348B-3DE5-4722-99BA-1A4B96A98727}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9B2A348B-3DE5-4722-99BA-1A4B96A98727}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9655,7 +9644,7 @@
           <xdr:cNvPr id="38" name="그룹 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AF93F83B-8318-4799-900D-23D9A4A2DDD5}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AF93F83B-8318-4799-900D-23D9A4A2DDD5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9674,7 +9663,7 @@
             <xdr:cNvPr id="39" name="그룹 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9F4892B0-39C6-4CA0-9F0F-1AB9E2F05D51}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9F4892B0-39C6-4CA0-9F0F-1AB9E2F05D51}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9693,7 +9682,7 @@
               <xdr:cNvPr id="125" name="그림 124">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3A6D35F3-9D28-4E2C-AD3B-EDA40285DE8B}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3A6D35F3-9D28-4E2C-AD3B-EDA40285DE8B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9728,7 +9717,7 @@
               <xdr:cNvPr id="126" name="그림 125">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{119BCDE0-EDF0-4636-9C04-C0DB5A6CF7B6}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{119BCDE0-EDF0-4636-9C04-C0DB5A6CF7B6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9764,7 +9753,7 @@
             <xdr:cNvPr id="40" name="그룹 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E668AC33-B7E0-410F-AD07-E82C34ED06DC}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E668AC33-B7E0-410F-AD07-E82C34ED06DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9783,7 +9772,7 @@
               <xdr:cNvPr id="123" name="그림 122">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B105231F-7ABD-4B86-9ABE-A74A9A371A1F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B105231F-7ABD-4B86-9ABE-A74A9A371A1F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9818,7 +9807,7 @@
               <xdr:cNvPr id="124" name="그림 123">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0AD27F41-AADF-4F0A-A3FE-1F90BBABB5CD}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0AD27F41-AADF-4F0A-A3FE-1F90BBABB5CD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9854,7 +9843,7 @@
             <xdr:cNvPr id="41" name="그룹 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7E0B40BC-6688-406F-A4BC-02B0FB9FEC3C}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7E0B40BC-6688-406F-A4BC-02B0FB9FEC3C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9873,7 +9862,7 @@
               <xdr:cNvPr id="121" name="그림 120">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{39C62E63-390A-4818-93CE-67265EC4E483}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{39C62E63-390A-4818-93CE-67265EC4E483}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9908,7 +9897,7 @@
               <xdr:cNvPr id="122" name="그림 121">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1CC7AA91-426E-4DFB-A1BF-94265D0C3CA4}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1CC7AA91-426E-4DFB-A1BF-94265D0C3CA4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9944,7 +9933,7 @@
             <xdr:cNvPr id="42" name="그룹 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CFEBB250-7501-41A2-AA78-5EA7D41556D0}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CFEBB250-7501-41A2-AA78-5EA7D41556D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9963,7 +9952,7 @@
               <xdr:cNvPr id="119" name="그림 118">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9058F734-EE67-4351-9522-CCBAA101BC2F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9058F734-EE67-4351-9522-CCBAA101BC2F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9998,7 +9987,7 @@
               <xdr:cNvPr id="120" name="그림 119">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0B42AAA5-31EF-426D-9305-40545EF791CE}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0B42AAA5-31EF-426D-9305-40545EF791CE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10034,7 +10023,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5861503E-C02A-468E-8326-166A81AE313D}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5861503E-C02A-468E-8326-166A81AE313D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10174,7 +10163,7 @@
             <xdr:cNvPr id="44" name="직사각형 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AE476840-B02B-4948-83DA-D15F239537E6}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AE476840-B02B-4948-83DA-D15F239537E6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10314,7 +10303,7 @@
             <xdr:cNvPr id="45" name="직사각형 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E9D3BAAA-AAA1-4AF0-837F-3D2CC100A40B}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E9D3BAAA-AAA1-4AF0-837F-3D2CC100A40B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10486,7 +10475,7 @@
             <xdr:cNvPr id="46" name="직사각형 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D7980D25-AC23-4DE0-A6E6-4DD30B9E0E4A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D7980D25-AC23-4DE0-A6E6-4DD30B9E0E4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10626,7 +10615,7 @@
             <xdr:cNvPr id="47" name="연결선: 꺾임 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{27D91671-9917-4A68-88E3-E17659CA070A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{27D91671-9917-4A68-88E3-E17659CA070A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10677,7 +10666,7 @@
             <xdr:cNvPr id="48" name="연결선: 꺾임 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E0D78086-35E2-48B1-937A-C723CD64BC31}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E0D78086-35E2-48B1-937A-C723CD64BC31}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10728,7 +10717,7 @@
             <xdr:cNvPr id="49" name="직선 연결선 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2EC70B21-DCF5-445A-9F58-810C2F60A673}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{2EC70B21-DCF5-445A-9F58-810C2F60A673}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10777,7 +10766,7 @@
             <xdr:cNvPr id="50" name="직선 연결선 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{492F0536-E7A7-4F54-B208-C6734AE26E5E}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{492F0536-E7A7-4F54-B208-C6734AE26E5E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10826,7 +10815,7 @@
             <xdr:cNvPr id="51" name="그룹 50">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7EB619D4-2D1F-42BC-A6B3-F48F324F4E2C}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7EB619D4-2D1F-42BC-A6B3-F48F324F4E2C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10845,7 +10834,7 @@
               <xdr:cNvPr id="52" name="사각형: 둥근 모서리 70">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{920E033B-C3DE-4ED5-99F0-7360C0970229}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{920E033B-C3DE-4ED5-99F0-7360C0970229}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10995,7 +10984,7 @@
               <xdr:cNvPr id="53" name="그룹 52">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{40A09285-2602-448A-B3B0-EB793999E33E}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{40A09285-2602-448A-B3B0-EB793999E33E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11014,7 +11003,7 @@
                 <xdr:cNvPr id="114" name="양쪽 모서리가 둥근 사각형 113">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AB22F163-9330-4E21-9039-6EA325B3373F}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AB22F163-9330-4E21-9039-6EA325B3373F}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11159,7 +11148,7 @@
                 <xdr:cNvPr id="115" name="TextBox 133">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CC06650B-E3B9-4596-99A9-1DB78915127A}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CC06650B-E3B9-4596-99A9-1DB78915127A}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11300,7 +11289,7 @@
                 <xdr:cNvPr id="116" name="그룹 115">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6E858C77-0998-4392-83D7-632A4B12177C}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6E858C77-0998-4392-83D7-632A4B12177C}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11319,7 +11308,7 @@
                   <xdr:cNvPr id="117" name="직사각형 116">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{12F48890-F87B-4D39-95F5-9873D87B21A6}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{12F48890-F87B-4D39-95F5-9873D87B21A6}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -11468,7 +11457,7 @@
                   <xdr:cNvPr id="118" name="직선 연결선 117">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{407E8F79-46EE-4522-A319-D6034ED5942D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{407E8F79-46EE-4522-A319-D6034ED5942D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -11512,7 +11501,7 @@
               <xdr:cNvPr id="54" name="그룹 53">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{143A1E59-A780-4DB6-A8A2-88B0A29608C0}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{143A1E59-A780-4DB6-A8A2-88B0A29608C0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11531,7 +11520,7 @@
                 <xdr:cNvPr id="109" name="양쪽 모서리가 둥근 사각형 108">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A5AE207A-CBDC-4387-81EF-3EC9717903FA}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A5AE207A-CBDC-4387-81EF-3EC9717903FA}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11676,7 +11665,7 @@
                 <xdr:cNvPr id="110" name="TextBox 128">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3FB900FC-9A40-4807-A598-B5C03A757968}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3FB900FC-9A40-4807-A598-B5C03A757968}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11846,7 +11835,7 @@
                 <xdr:cNvPr id="111" name="그룹 110">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7F2F8DBB-BFA4-4B81-B0B3-D21A71671638}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7F2F8DBB-BFA4-4B81-B0B3-D21A71671638}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11865,7 +11854,7 @@
                   <xdr:cNvPr id="112" name="직사각형 111">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{30FD6B2C-7D52-4D30-BAEA-4BFC0C9DC342}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{30FD6B2C-7D52-4D30-BAEA-4BFC0C9DC342}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -12014,7 +12003,7 @@
                   <xdr:cNvPr id="113" name="직선 연결선 112">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{20708AE4-B895-4004-B9E8-E11333271D09}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{20708AE4-B895-4004-B9E8-E11333271D09}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -12058,7 +12047,7 @@
               <xdr:cNvPr id="55" name="그룹 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B5AFDEA7-868F-4244-84FE-D7815A413567}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B5AFDEA7-868F-4244-84FE-D7815A413567}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12077,7 +12066,7 @@
                 <xdr:cNvPr id="107" name="TextBox 125">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5F4D99E2-98C7-4EC3-A360-BFB37F63FE8D}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5F4D99E2-98C7-4EC3-A360-BFB37F63FE8D}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -12300,7 +12289,7 @@
                 <xdr:cNvPr id="108" name="TextBox 126">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E4525784-AD23-4D41-B3DA-CD047C9FB736}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E4525784-AD23-4D41-B3DA-CD047C9FB736}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -12592,7 +12581,7 @@
               <xdr:cNvPr id="56" name="화살표: 왼쪽/오른쪽 74">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6DB22DAF-FC25-48C6-963B-A16EF76449AA}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6DB22DAF-FC25-48C6-963B-A16EF76449AA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12754,7 +12743,7 @@
               <xdr:cNvPr id="57" name="그룹 56">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{EFD0BE00-383B-43DD-8AFA-07DCB8E54FA2}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{EFD0BE00-383B-43DD-8AFA-07DCB8E54FA2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12773,7 +12762,7 @@
                 <xdr:cNvPr id="95" name="모서리가 둥근 직사각형 94">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1397B8C7-F1CF-404B-8230-8ACB7D1653BC}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1397B8C7-F1CF-404B-8230-8ACB7D1653BC}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -12930,7 +12919,7 @@
                 <xdr:cNvPr id="96" name="TextBox 114">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BBE61510-CC43-4516-AB85-ECBA195982AB}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BBE61510-CC43-4516-AB85-ECBA195982AB}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13103,7 +13092,7 @@
                 <xdr:cNvPr id="97" name="모서리가 둥근 직사각형 96">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C8B39CB6-05BE-401F-9786-99E751A7F1C3}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{C8B39CB6-05BE-401F-9786-99E751A7F1C3}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13260,7 +13249,7 @@
                 <xdr:cNvPr id="98" name="모서리가 둥근 직사각형 97">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F8857F27-5B1C-4793-A9BA-D9FC7338569E}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F8857F27-5B1C-4793-A9BA-D9FC7338569E}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13417,7 +13406,7 @@
                 <xdr:cNvPr id="99" name="모서리가 둥근 직사각형 98">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D6798A78-4A92-4F09-B1AA-B9DDA1A7B2B8}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D6798A78-4A92-4F09-B1AA-B9DDA1A7B2B8}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13574,7 +13563,7 @@
                 <xdr:cNvPr id="100" name="모서리가 둥근 직사각형 99">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{281C85D6-2AA1-46EF-B46C-E1F356888ABB}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{281C85D6-2AA1-46EF-B46C-E1F356888ABB}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13731,7 +13720,7 @@
                 <xdr:cNvPr id="101" name="모서리가 둥근 직사각형 100">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{887EF55E-7996-4AEB-AFE3-87079CC46DB6}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{887EF55E-7996-4AEB-AFE3-87079CC46DB6}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13888,7 +13877,7 @@
                 <xdr:cNvPr id="102" name="TextBox 120">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{87659683-E57F-4219-B078-CECF43E5EFEE}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{87659683-E57F-4219-B078-CECF43E5EFEE}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14061,7 +14050,7 @@
                 <xdr:cNvPr id="103" name="TextBox 121">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E94D1053-51D1-4A97-B7A0-D6F6734EE39E}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E94D1053-51D1-4A97-B7A0-D6F6734EE39E}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14215,7 +14204,7 @@
                 <xdr:cNvPr id="104" name="TextBox 122">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D8149951-EED8-48EC-BED1-73EE3E1B1327}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D8149951-EED8-48EC-BED1-73EE3E1B1327}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14417,7 +14406,7 @@
                 <xdr:cNvPr id="105" name="TextBox 123">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E1D1B522-3AD1-42E0-98D1-6CE5BDFBA48E}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E1D1B522-3AD1-42E0-98D1-6CE5BDFBA48E}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14590,7 +14579,7 @@
                 <xdr:cNvPr id="106" name="TextBox 124">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CC5297D4-645A-49E4-A3FE-D7CC9416ABE3}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CC5297D4-645A-49E4-A3FE-D7CC9416ABE3}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14793,7 +14782,7 @@
               <xdr:cNvPr id="58" name="그룹 57">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0958CC88-A41D-491A-A24B-F085F10FFA30}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0958CC88-A41D-491A-A24B-F085F10FFA30}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14812,7 +14801,7 @@
                 <xdr:cNvPr id="91" name="그룹 90">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D7FF2455-89A5-4FD0-B7C7-8AE63FF9E948}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D7FF2455-89A5-4FD0-B7C7-8AE63FF9E948}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14834,7 +14823,7 @@
                   <xdr:cNvPr id="93" name="타원 92">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{55372EB1-2E4E-45A5-95FD-10F60D2C948D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{55372EB1-2E4E-45A5-95FD-10F60D2C948D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -14977,7 +14966,7 @@
                   <xdr:cNvPr id="94" name="직사각형 93">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{72C3382B-8419-41B3-855B-AD980C307CDB}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{72C3382B-8419-41B3-855B-AD980C307CDB}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15121,7 +15110,7 @@
                 <xdr:cNvPr id="92" name="타원 91">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C9E80261-E6D3-4040-93D4-825DEB7D6F42}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{C9E80261-E6D3-4040-93D4-825DEB7D6F42}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15267,7 +15256,7 @@
               <xdr:cNvPr id="59" name="그룹 58">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{85B853CB-E52A-45BA-85E6-D16F6AB15B52}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{85B853CB-E52A-45BA-85E6-D16F6AB15B52}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15286,7 +15275,7 @@
                 <xdr:cNvPr id="87" name="그룹 86">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{953A95F9-2BD6-45FD-8DE2-3537B4B13E80}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{953A95F9-2BD6-45FD-8DE2-3537B4B13E80}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15308,7 +15297,7 @@
                   <xdr:cNvPr id="89" name="타원 88">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6635DF96-6975-4886-8002-FF6837776B6D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6635DF96-6975-4886-8002-FF6837776B6D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15451,7 +15440,7 @@
                   <xdr:cNvPr id="90" name="직사각형 89">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{65827721-657A-4094-9BA9-CB801B4BD185}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{65827721-657A-4094-9BA9-CB801B4BD185}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15595,7 +15584,7 @@
                 <xdr:cNvPr id="88" name="타원 87">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F8FF3D25-FC02-425D-B04D-58A3A74E093C}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F8FF3D25-FC02-425D-B04D-58A3A74E093C}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15741,7 +15730,7 @@
               <xdr:cNvPr id="60" name="그룹 59">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{166D158B-1233-48D1-A2D9-B66CD6EA715A}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{166D158B-1233-48D1-A2D9-B66CD6EA715A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15760,7 +15749,7 @@
                 <xdr:cNvPr id="83" name="그룹 82">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{247687D5-8474-4FCA-A201-EDB157623B1D}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{247687D5-8474-4FCA-A201-EDB157623B1D}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15782,7 +15771,7 @@
                   <xdr:cNvPr id="85" name="타원 84">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B011BC75-C17E-41E3-96C4-3B86AEEB4D9A}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B011BC75-C17E-41E3-96C4-3B86AEEB4D9A}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15925,7 +15914,7 @@
                   <xdr:cNvPr id="86" name="직사각형 85">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A38F1A25-DADB-4D8E-AB70-836DF11A2933}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A38F1A25-DADB-4D8E-AB70-836DF11A2933}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16069,7 +16058,7 @@
                 <xdr:cNvPr id="84" name="타원 83">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B8BAB922-372B-4876-BCA7-29D88BE4C1DB}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B8BAB922-372B-4876-BCA7-29D88BE4C1DB}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16215,7 +16204,7 @@
               <xdr:cNvPr id="61" name="그룹 60">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6895CF68-058B-4731-B344-F2E3EDF4243F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6895CF68-058B-4731-B344-F2E3EDF4243F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16234,7 +16223,7 @@
                 <xdr:cNvPr id="79" name="그룹 78">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B9041589-F9C4-4EBA-A484-A67363BB3845}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B9041589-F9C4-4EBA-A484-A67363BB3845}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16256,7 +16245,7 @@
                   <xdr:cNvPr id="81" name="타원 80">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{151B68C0-CFEB-414D-A8E1-A6B5A5459FD7}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{151B68C0-CFEB-414D-A8E1-A6B5A5459FD7}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16399,7 +16388,7 @@
                   <xdr:cNvPr id="82" name="직사각형 81">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{43364CD2-2EDB-4C94-A481-593133E83893}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{43364CD2-2EDB-4C94-A481-593133E83893}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16543,7 +16532,7 @@
                 <xdr:cNvPr id="80" name="타원 79">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9BC5C51F-1C70-4FB9-8A54-D419E62AD6AA}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9BC5C51F-1C70-4FB9-8A54-D419E62AD6AA}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16689,7 +16678,7 @@
               <xdr:cNvPr id="62" name="그룹 61">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0A5C28EA-6599-491C-AAA3-9B6C95A1A5FA}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0A5C28EA-6599-491C-AAA3-9B6C95A1A5FA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16708,7 +16697,7 @@
                 <xdr:cNvPr id="75" name="그룹 74">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{128BF59A-5392-4FF6-9F91-B7F2CA263FDC}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{128BF59A-5392-4FF6-9F91-B7F2CA263FDC}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16730,7 +16719,7 @@
                   <xdr:cNvPr id="77" name="타원 76">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{678C8BBF-0923-4FA2-8C12-1D9088A7CC6D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{678C8BBF-0923-4FA2-8C12-1D9088A7CC6D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16873,7 +16862,7 @@
                   <xdr:cNvPr id="78" name="직사각형 77">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BEE86A38-2359-4426-89DC-296CB556F9E0}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BEE86A38-2359-4426-89DC-296CB556F9E0}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -17017,7 +17006,7 @@
                 <xdr:cNvPr id="76" name="타원 75">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{14049512-406D-4419-9CFD-1E1D03CE6FB3}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{14049512-406D-4419-9CFD-1E1D03CE6FB3}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -17163,7 +17152,7 @@
               <xdr:cNvPr id="63" name="그룹 62">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{41D373B4-B1AE-4DC4-976B-B9CFEEEEE4DA}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{41D373B4-B1AE-4DC4-976B-B9CFEEEEE4DA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17182,7 +17171,7 @@
                 <xdr:cNvPr id="71" name="그룹 70">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{07411238-6669-4D16-9AE2-9FDB4EAE2FAC}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{07411238-6669-4D16-9AE2-9FDB4EAE2FAC}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -17204,7 +17193,7 @@
                   <xdr:cNvPr id="73" name="타원 72">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BB94C537-0CD1-40EC-BC4B-E3147D887ED3}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BB94C537-0CD1-40EC-BC4B-E3147D887ED3}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -17347,7 +17336,7 @@
                   <xdr:cNvPr id="74" name="직사각형 73">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4FF1F776-7445-44D0-B6EF-52E2A78C1A73}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4FF1F776-7445-44D0-B6EF-52E2A78C1A73}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -17491,7 +17480,7 @@
                 <xdr:cNvPr id="72" name="타원 71">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DF1A169A-E958-431E-AD44-2443A9E2CA3C}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{DF1A169A-E958-431E-AD44-2443A9E2CA3C}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -17637,7 +17626,7 @@
               <xdr:cNvPr id="64" name="화살표: 왼쪽/오른쪽 82">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5627A696-6989-4A7B-B0A7-80111552FF7D}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5627A696-6989-4A7B-B0A7-80111552FF7D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17799,7 +17788,7 @@
               <xdr:cNvPr id="65" name="TextBox 83">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1920F719-EDC7-407B-93F9-54BB8A773104}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1920F719-EDC7-407B-93F9-54BB8A773104}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17966,7 +17955,7 @@
               <xdr:cNvPr id="66" name="TextBox 84">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1630B7A7-7331-4F8E-848F-AA5FC8A4755D}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1630B7A7-7331-4F8E-848F-AA5FC8A4755D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18133,7 +18122,7 @@
               <xdr:cNvPr id="67" name="TextBox 85">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{183A89CA-DF60-46D5-A989-5E727AB3F853}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{183A89CA-DF60-46D5-A989-5E727AB3F853}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18284,7 +18273,7 @@
               <xdr:cNvPr id="68" name="TextBox 86">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1E98662D-C18D-4843-8F6E-84AF44450DC7}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1E98662D-C18D-4843-8F6E-84AF44450DC7}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18451,7 +18440,7 @@
               <xdr:cNvPr id="69" name="TextBox 87">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3E6D1A8B-FC60-4F01-9054-E113213B0BAF}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3E6D1A8B-FC60-4F01-9054-E113213B0BAF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18618,7 +18607,7 @@
               <xdr:cNvPr id="70" name="TextBox 88">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{42C98EBD-A416-476A-985C-FCA297186A6C}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{42C98EBD-A416-476A-985C-FCA297186A6C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18920,7 +18909,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{84E44A6D-4446-4AAC-A558-3E8F62875224}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{84E44A6D-4446-4AAC-A558-3E8F62875224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18928,8 +18917,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1400174" y="11468101"/>
-          <a:ext cx="5651509" cy="4282710"/>
+          <a:off x="1400907" y="11615372"/>
+          <a:ext cx="5650043" cy="4341326"/>
           <a:chOff x="157661" y="-1346243"/>
           <a:chExt cx="12533223" cy="9497674"/>
         </a:xfrm>
@@ -18939,7 +18928,7 @@
           <xdr:cNvPr id="3" name="사다리꼴 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{803C4E45-AAF5-4B61-B76C-EE6700DF056F}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{803C4E45-AAF5-4B61-B76C-EE6700DF056F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19096,7 +19085,7 @@
           <xdr:cNvPr id="4" name="사다리꼴 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CAB23863-674A-4378-9514-03D1333A1B7E}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CAB23863-674A-4378-9514-03D1333A1B7E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19253,7 +19242,7 @@
           <xdr:cNvPr id="5" name="사다리꼴 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F3130E55-E299-4BD6-AC6A-D16A92C7B90A}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F3130E55-E299-4BD6-AC6A-D16A92C7B90A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19410,7 +19399,7 @@
           <xdr:cNvPr id="6" name="사다리꼴 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9F165EA6-637F-4945-A882-1FF57B5BD79B}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9F165EA6-637F-4945-A882-1FF57B5BD79B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19567,7 +19556,7 @@
           <xdr:cNvPr id="7" name="사다리꼴 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D6C2E104-4E9B-4E8A-87EF-7F9E6EDDF1F3}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D6C2E104-4E9B-4E8A-87EF-7F9E6EDDF1F3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19724,7 +19713,7 @@
           <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1FCA83AA-EC3A-4921-A0A2-F371E39AA95B}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1FCA83AA-EC3A-4921-A0A2-F371E39AA95B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19882,7 +19871,7 @@
           <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{599686EE-41C9-4554-9E72-3482C226F399}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{599686EE-41C9-4554-9E72-3482C226F399}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20029,7 +20018,7 @@
           <xdr:cNvPr id="10" name="TextBox 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0E982FD4-E3F6-4410-B1E8-AB2AB4048DE5}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0E982FD4-E3F6-4410-B1E8-AB2AB4048DE5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20177,7 +20166,7 @@
           <xdr:cNvPr id="11" name="Picture 2" descr="https://develop3d.kosinus.hr/wp-content/uploads/2019/11/Flyingshapes_Interior-with-Gizmo.jpg">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9FD89C22-911E-4C37-84EC-F223CEA26223}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9FD89C22-911E-4C37-84EC-F223CEA26223}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20223,7 +20212,7 @@
           <xdr:cNvPr id="12" name="Picture 6" descr="Messaging/Chatting Web App - App Templates - Ideas of App Templates  #apptemplates - Messaging/Chatting Web App 201… | App template design, Web  app design, Web app">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E0C4E678-56F2-4578-8B27-38DF611364B1}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E0C4E678-56F2-4578-8B27-38DF611364B1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20267,7 +20256,7 @@
           <xdr:cNvPr id="13" name="그룹 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5FD75DE0-2F57-4E46-865E-26CF69083593}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5FD75DE0-2F57-4E46-865E-26CF69083593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20286,7 +20275,7 @@
             <xdr:cNvPr id="31" name="그룹 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2589ED2F-54F6-427F-8895-11490121C70D}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{2589ED2F-54F6-427F-8895-11490121C70D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20305,7 +20294,7 @@
               <xdr:cNvPr id="44" name="타원 43">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{967BD40F-55B6-4771-B75A-F7E521B3A4F4}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{967BD40F-55B6-4771-B75A-F7E521B3A4F4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20452,7 +20441,7 @@
               <xdr:cNvPr id="45" name="타원 44">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A3AA5351-5583-4F8E-B8F7-4FC0A2B308BA}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A3AA5351-5583-4F8E-B8F7-4FC0A2B308BA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20600,7 +20589,7 @@
             <xdr:cNvPr id="32" name="그룹 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{35EA6570-C6FD-495F-AF11-583D603C0F62}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{35EA6570-C6FD-495F-AF11-583D603C0F62}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20619,7 +20608,7 @@
               <xdr:cNvPr id="42" name="타원 41">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8D8DAF59-DB1A-42B1-B8D2-B273D3BCFE20}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{8D8DAF59-DB1A-42B1-B8D2-B273D3BCFE20}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20766,7 +20755,7 @@
               <xdr:cNvPr id="43" name="타원 42">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B8ADBBD8-51BC-4D58-8577-A19E98E21500}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B8ADBBD8-51BC-4D58-8577-A19E98E21500}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20914,7 +20903,7 @@
             <xdr:cNvPr id="33" name="그룹 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9BE7E81F-B508-49B0-BC00-920F4E424D19}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9BE7E81F-B508-49B0-BC00-920F4E424D19}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20933,7 +20922,7 @@
               <xdr:cNvPr id="40" name="타원 39">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D2A67A99-1532-4867-BD2B-F8D8423E2C45}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D2A67A99-1532-4867-BD2B-F8D8423E2C45}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21080,7 +21069,7 @@
               <xdr:cNvPr id="41" name="타원 40">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4E90FB7B-F712-488A-928A-78C9DA6FA569}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4E90FB7B-F712-488A-928A-78C9DA6FA569}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21228,7 +21217,7 @@
             <xdr:cNvPr id="34" name="그룹 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BF0E8321-D5AD-4A8F-8874-F013AEDBE7AB}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BF0E8321-D5AD-4A8F-8874-F013AEDBE7AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21247,7 +21236,7 @@
               <xdr:cNvPr id="38" name="타원 37">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1D8E50DB-02C9-41AB-BD75-B16F11198C70}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1D8E50DB-02C9-41AB-BD75-B16F11198C70}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21394,7 +21383,7 @@
               <xdr:cNvPr id="39" name="타원 38">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0DFF264D-F183-400E-BB83-55341F37616B}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0DFF264D-F183-400E-BB83-55341F37616B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21542,7 +21531,7 @@
             <xdr:cNvPr id="35" name="그룹 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6A224A4F-8A6B-488A-91DD-0507DC0A3E91}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6A224A4F-8A6B-488A-91DD-0507DC0A3E91}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21561,7 +21550,7 @@
               <xdr:cNvPr id="36" name="타원 35">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D2F40B4B-5C55-4C0A-8FF1-BC25EB931FB5}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D2F40B4B-5C55-4C0A-8FF1-BC25EB931FB5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21708,7 +21697,7 @@
               <xdr:cNvPr id="37" name="타원 36">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F1B83098-A031-4C8D-B01A-B342F082FB44}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F1B83098-A031-4C8D-B01A-B342F082FB44}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -21857,7 +21846,7 @@
           <xdr:cNvPr id="14" name="그룹 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E3244FC5-94A6-4A5F-9D23-29D53EC73613}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E3244FC5-94A6-4A5F-9D23-29D53EC73613}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21876,7 +21865,7 @@
             <xdr:cNvPr id="29" name="그림 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{77070721-B2AF-48C9-AFC0-B0782BFB6203}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{77070721-B2AF-48C9-AFC0-B0782BFB6203}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21911,7 +21900,7 @@
             <xdr:cNvPr id="30" name="그림 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{06312F93-E89C-4423-ABA2-BE62C08E4BA5}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{06312F93-E89C-4423-ABA2-BE62C08E4BA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21947,7 +21936,7 @@
           <xdr:cNvPr id="15" name="TextBox 84">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6DE6F6C1-625E-4ED4-A39C-F081F75C32B5}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6DE6F6C1-625E-4ED4-A39C-F081F75C32B5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22101,7 +22090,7 @@
           <xdr:cNvPr id="16" name="그림 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{06319CA3-8DE2-45C6-BCB9-4AEC7FB271A4}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{06319CA3-8DE2-45C6-BCB9-4AEC7FB271A4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22136,7 +22125,7 @@
           <xdr:cNvPr id="17" name="TextBox 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{129839DD-7B65-499C-9D6B-41CFB8EA6411}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{129839DD-7B65-499C-9D6B-41CFB8EA6411}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22290,7 +22279,7 @@
           <xdr:cNvPr id="18" name="그림 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00E4D7B2-2040-4EAF-8C65-4C446C3A0B75}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{00E4D7B2-2040-4EAF-8C65-4C446C3A0B75}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22319,7 +22308,7 @@
           <xdr:cNvPr id="19" name="TextBox 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{470D5D6E-D44E-4CF7-A35B-09C5693BDE3A}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{470D5D6E-D44E-4CF7-A35B-09C5693BDE3A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22502,7 +22491,7 @@
           <xdr:cNvPr id="20" name="그림 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{86EF2ED6-8185-48AB-AF29-F33C934F6904}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{86EF2ED6-8185-48AB-AF29-F33C934F6904}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22537,7 +22526,7 @@
           <xdr:cNvPr id="21" name="TextBox 90">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{71F5BE9B-4DA3-4B4F-99F9-88432DB0C086}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{71F5BE9B-4DA3-4B4F-99F9-88432DB0C086}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22723,7 +22712,7 @@
           <xdr:cNvPr id="22" name="그림 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{436DEFA7-4091-4CEB-840B-68F1B3A55B65}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{436DEFA7-4091-4CEB-840B-68F1B3A55B65}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22752,7 +22741,7 @@
           <xdr:cNvPr id="23" name="TextBox 92">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{970975F1-8580-432B-A9FF-73C8D175E9DF}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{970975F1-8580-432B-A9FF-73C8D175E9DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22906,7 +22895,7 @@
           <xdr:cNvPr id="24" name="TextBox 93">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{69CCE98D-C66F-4C4F-968A-E1C0FAA869C0}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{69CCE98D-C66F-4C4F-968A-E1C0FAA869C0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23315,7 +23304,7 @@
           <xdr:cNvPr id="25" name="TextBox 94">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5AC90EA1-DC81-4225-A401-86B0A8ADC3F8}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5AC90EA1-DC81-4225-A401-86B0A8ADC3F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23560,7 +23549,7 @@
           <xdr:cNvPr id="26" name="TextBox 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CE18CB43-432B-48EC-8620-A48C9C2F025C}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CE18CB43-432B-48EC-8620-A48C9C2F025C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23872,7 +23861,7 @@
           <xdr:cNvPr id="27" name="TextBox 96">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{009F963D-1491-4761-BF97-9FF38FD1D0D3}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{009F963D-1491-4761-BF97-9FF38FD1D0D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24117,7 +24106,7 @@
           <xdr:cNvPr id="28" name="TextBox 97">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{FB1B44BE-00D5-4026-B086-274E0672FBFD}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{FB1B44BE-00D5-4026-B086-274E0672FBFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24461,8 +24450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7934324" y="11306176"/>
-          <a:ext cx="5350893" cy="4664159"/>
+          <a:off x="7933591" y="11450516"/>
+          <a:ext cx="5353091" cy="4728636"/>
           <a:chOff x="6325793" y="1607374"/>
           <a:chExt cx="5350893" cy="4664159"/>
         </a:xfrm>
@@ -24472,7 +24461,7 @@
           <xdr:cNvPr id="47" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1865BFD0-CD00-4C9C-A3B9-564F64339E6A}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1865BFD0-CD00-4C9C-A3B9-564F64339E6A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24702,7 +24691,7 @@
           <xdr:cNvPr id="48" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{532D7D75-F2A3-458F-A19F-5EFA205726F5}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{532D7D75-F2A3-458F-A19F-5EFA205726F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24914,7 +24903,7 @@
           <xdr:cNvPr id="49" name="모서리가 둥근 직사각형 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8097C15A-7972-4E75-B1F5-AB8C56E56CFE}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{8097C15A-7972-4E75-B1F5-AB8C56E56CFE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25325,7 +25314,7 @@
           <xdr:cNvPr id="50" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25491,7 +25480,7 @@
           <xdr:cNvPr id="51" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25670,7 +25659,7 @@
           <xdr:cNvPr id="52" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25849,7 +25838,7 @@
           <xdr:cNvPr id="53" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26028,7 +26017,7 @@
           <xdr:cNvPr id="54" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26207,7 +26196,7 @@
           <xdr:cNvPr id="55" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26418,7 +26407,7 @@
           <xdr:cNvPr id="56" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26597,7 +26586,7 @@
           <xdr:cNvPr id="57" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26776,7 +26765,7 @@
           <xdr:cNvPr id="58" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26955,7 +26944,7 @@
           <xdr:cNvPr id="59" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27134,7 +27123,7 @@
           <xdr:cNvPr id="60" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27313,7 +27302,7 @@
           <xdr:cNvPr id="61" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27492,7 +27481,7 @@
           <xdr:cNvPr id="62" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27671,7 +27660,7 @@
           <xdr:cNvPr id="63" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27850,7 +27839,7 @@
           <xdr:cNvPr id="64" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28029,7 +28018,7 @@
           <xdr:cNvPr id="65" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28208,7 +28197,7 @@
           <xdr:cNvPr id="66" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28387,7 +28376,7 @@
           <xdr:cNvPr id="67" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28717,7 +28706,7 @@
           <xdr:cNvPr id="72" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28917,7 +28906,7 @@
           <xdr:cNvPr id="73" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29117,7 +29106,7 @@
           <xdr:cNvPr id="74" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29323,7 +29312,7 @@
           <xdr:cNvPr id="75" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29502,7 +29491,7 @@
           <xdr:cNvPr id="76" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29829,7 +29818,7 @@
           <xdr:cNvPr id="81" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30024,7 +30013,7 @@
           <xdr:cNvPr id="82" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30240,7 +30229,7 @@
           <xdr:cNvPr id="84" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30525,7 +30514,7 @@
           <xdr:cNvPr id="87" name="사각형: 둥근 모서리 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E763BB39-CFEA-4217-80F4-C97A9A7D0780}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31135,39 +31124,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:B14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E38"/>
   <sheetViews>
@@ -31182,193 +31170,193 @@
   <sheetData>
     <row r="2" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="4:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -31377,11 +31365,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -31393,130 +31381,130 @@
   <sheetData>
     <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>68</v>
+      <c r="C3" s="46" t="s">
+        <v>65</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>69</v>
+      <c r="C4" s="48" t="s">
+        <v>66</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>71</v>
+      <c r="C5" s="48" t="s">
+        <v>68</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>73</v>
+      <c r="C6" s="48" t="s">
+        <v>70</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>75</v>
+      <c r="C7" s="48" t="s">
+        <v>72</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>77</v>
+      <c r="C8" s="48" t="s">
+        <v>74</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="2:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>101</v>
+      <c r="C9" s="35" t="s">
+        <v>98</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="2:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>104</v>
+      <c r="C10" s="44" t="s">
+        <v>101</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>105</v>
+      <c r="C11" s="35" t="s">
+        <v>102</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
-        <v>84</v>
+      <c r="B14" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" s="14">
         <v>60</v>
@@ -31526,67 +31514,67 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F16" s="15">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="30" t="s">
-        <v>90</v>
+      <c r="B17" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18" s="15">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="18">
         <v>90</v>
@@ -31594,26 +31582,26 @@
     </row>
     <row r="20" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="33" t="s">
-        <v>95</v>
+      <c r="B21" s="40" t="s">
+        <v>92</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" s="17">
         <v>60</v>
@@ -31623,22 +31611,28 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="35" t="s">
-        <v>96</v>
+      <c r="B22" s="42" t="s">
+        <v>93</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
@@ -31646,12 +31640,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31660,10 +31648,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31678,79 +31681,79 @@
   <sheetData>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>126</v>
+      <c r="D18" s="25" t="s">
+        <v>123</v>
       </c>
-      <c r="F18" s="40" t="s">
-        <v>127</v>
+      <c r="F18" s="25" t="s">
+        <v>124</v>
       </c>
-      <c r="H18" s="40" t="s">
-        <v>128</v>
+      <c r="H18" s="25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="39" t="s">
-        <v>115</v>
+      <c r="D21" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
-      <c r="H22" s="39" t="s">
-        <v>117</v>
+      <c r="H22" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -31758,13 +31761,13 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -31775,12 +31778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D19:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31808,7 +31811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:F18"/>
   <sheetViews>
@@ -31820,32 +31823,32 @@
   <sheetData>
     <row r="9" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -31854,7 +31857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31870,12 +31873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31886,287 +31889,287 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="41" customWidth="1"/>
-    <col min="4" max="4" width="149.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="26" customWidth="1"/>
+    <col min="4" max="4" width="149.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="42"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
-        <v>18</v>
+      <c r="B3" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="28"/>
+      <c r="D4" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="28"/>
+      <c r="D5" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="28"/>
+      <c r="D6" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="28"/>
+      <c r="D7" s="31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="41" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="28"/>
+      <c r="D12" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="28"/>
+      <c r="D13" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="28"/>
+      <c r="D14" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="28"/>
+      <c r="D15" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="28"/>
+      <c r="D19" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="28"/>
+      <c r="D20" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="28"/>
+      <c r="D21" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="28"/>
+      <c r="D22" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="46" t="s">
-        <v>173</v>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="28" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="46" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="28"/>
+      <c r="D25" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="28"/>
+      <c r="D28" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="28"/>
+      <c r="D29" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="28"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="28"/>
+      <c r="D34" s="30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="43"/>
-      <c r="D7" s="46" t="s">
+    <row r="35" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C35" s="28"/>
+      <c r="D35" s="33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="49" t="s">
+    <row r="36" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C36" s="28"/>
+      <c r="D36" s="33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="43"/>
-      <c r="D12" s="45" t="s">
-        <v>62</v>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="28"/>
+      <c r="D38" s="30" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="43"/>
-      <c r="D13" s="46" t="s">
-        <v>148</v>
+    <row r="39" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C39" s="28"/>
+      <c r="D39" s="33" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="43"/>
-      <c r="D14" s="46" t="s">
-        <v>149</v>
+    <row r="40" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C40" s="28"/>
+      <c r="D40" s="33" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="43"/>
-      <c r="D15" s="46" t="s">
-        <v>150</v>
+    <row r="41" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C41" s="28"/>
+      <c r="D41" s="33" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="43"/>
-      <c r="D16" s="46"/>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="28"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="43"/>
-      <c r="D17" s="46"/>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="28"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="43" t="s">
-        <v>138</v>
-      </c>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="28"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="43"/>
-      <c r="D19" s="45" t="s">
-        <v>63</v>
-      </c>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="28"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="43"/>
-      <c r="D20" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="43"/>
-      <c r="D21" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="43"/>
-      <c r="D22" s="45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="43"/>
-      <c r="D23" s="45"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="43"/>
-      <c r="D25" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="43"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="43" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="43"/>
-      <c r="D28" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="43"/>
-      <c r="D29" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="43"/>
-      <c r="D30" s="45"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="43" t="s">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="43"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="43" t="s">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="43"/>
-      <c r="D34" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C35" s="43"/>
-      <c r="D35" s="48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C36" s="43"/>
-      <c r="D36" s="48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="43"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="43"/>
-      <c r="D38" s="45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C39" s="43"/>
-      <c r="D39" s="48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C40" s="43"/>
-      <c r="D40" s="48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C41" s="43"/>
-      <c r="D41" s="48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="43"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="43"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="43"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="43"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="43" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="43" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="43"/>
+      <c r="C51" s="28"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="43"/>
+      <c r="C52" s="28"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="43"/>
+      <c r="C53" s="28"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="43"/>
+      <c r="C54" s="28"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="43"/>
+      <c r="C55" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32176,11 +32179,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -32198,102 +32201,102 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="32" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="47" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="47" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="32" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="47" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="47" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D14" s="47" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="32" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D15" s="47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="47" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="47" t="s">
-        <v>165</v>
+      <c r="D19" s="32" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="47" t="s">
-        <v>166</v>
+      <c r="D20" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -32313,59 +32316,59 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="47" t="s">
-        <v>167</v>
+      <c r="D27" s="32" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="47" t="s">
-        <v>168</v>
+      <c r="D28" s="32" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="47" t="s">
-        <v>169</v>
+      <c r="D29" s="32" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -32373,75 +32376,75 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D38" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
-      <c r="E43" s="48" t="s">
-        <v>170</v>
+      <c r="E43" s="33" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
-      <c r="E44" s="48" t="s">
-        <v>171</v>
+      <c r="E44" s="33" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D45" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -32449,19 +32452,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>